--- a/data/hotels_by_city/Houston/Houston_shard_501.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_501.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d244313-Reviews-Motel_6_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>428</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Motel-6-Houston-Westchase.h996232.Hotel-Information?chkin=7%2F22%2F2018&amp;chkout=7%2F23%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531444432991&amp;cancellable=false&amp;regionId=1503&amp;vip=false&amp;c=4bc52a70-9ab5-470f-8772-13eb815cd7fe&amp;mctc=9&amp;exp_dp=53.99&amp;exp_ts=1531444433586&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,363 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r482496709-Motel_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>244313</t>
+  </si>
+  <si>
+    <t>482496709</t>
+  </si>
+  <si>
+    <t>05/07/2017</t>
+  </si>
+  <si>
+    <t>Clean, very basic</t>
+  </si>
+  <si>
+    <t>We stayed recently as a family with 2 small children. The rooms were very clean as was the whole hotel. The pool was nice, a good feature for the kids to burn energy. We booked a queen bed but their "queen" bed is definitely a full sized bed. They had 2 towels in the room so we asked for more but they only had hand towels available. Front desk staff was polite but not very attentive or personable. Amenities are very few, but that is listed as such on the website, coffee is blah &amp; only provided in the morning. Convince stores are walking distance away though. Over all it wasn't a bad experience but it was just "okay". MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We stayed recently as a family with 2 small children. The rooms were very clean as was the whole hotel. The pool was nice, a good feature for the kids to burn energy. We booked a queen bed but their "queen" bed is definitely a full sized bed. They had 2 towels in the room so we asked for more but they only had hand towels available. Front desk staff was polite but not very attentive or personable. Amenities are very few, but that is listed as such on the website, coffee is blah &amp; only provided in the morning. Convince stores are walking distance away though. Over all it wasn't a bad experience but it was just "okay". More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r453111436-Motel_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>453111436</t>
+  </si>
+  <si>
+    <t>01/18/2017</t>
+  </si>
+  <si>
+    <t>Great pit stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice stop clean and relaxing   would say go there   pricing great.  Easy to find  clean clean  nice parking. Good  for a pit stop  they even let me check out late  one of the best motel 6s I been to remodel and nice </t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r450988177-Motel_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>450988177</t>
+  </si>
+  <si>
+    <t>01/10/2017</t>
+  </si>
+  <si>
+    <t>clean and comfortable</t>
+  </si>
+  <si>
+    <t>Clean and comfortableThe good: The room was clean and smelled fresh, the location was great, the rate was reasonable and the staff were friendly.The bad: WIFI is not free, only one ice machine on the first floor</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r390117935-Motel_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>390117935</t>
+  </si>
+  <si>
+    <t>07/07/2016</t>
+  </si>
+  <si>
+    <t>clean and convenent</t>
+  </si>
+  <si>
+    <t>I was reading the reviews and I was hesitant first before I decided to try this place, and I am glade that I did, it was very clean, the room smelled fresh and the staff were friendly. The tub was not so great, it looks old, but everything else was fine. The value was excellent but WIFI is not free</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r385595259-Motel_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>385595259</t>
+  </si>
+  <si>
+    <t>06/24/2016</t>
+  </si>
+  <si>
+    <t>Worst hotel stay</t>
+  </si>
+  <si>
+    <t>I checked in around 530p. The clerk had the worst attitude. When I wal through the door there was no greeting. She was absorbed in a conversation with another lady, they were dissing some being in jail. Then when the entire conversation concluded. I stated I had a reservation. She asked for my id and credit card. Asked me how I wanted to pay. Ran my card and gave me my room key. Guess I had to figure room location on my own. This is so odd I stayed at a motel 6 in California and recieved the best service. But if this was my first exposure to motel 6 I would never stay again. I would say to any one booking here. Just beware they are run down equivalent to a pay by the hour motel. Just not a pleasant experience at all for me. I checked out early. Motel 6 will never see me or my business again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I checked in around 530p. The clerk had the worst attitude. When I wal through the door there was no greeting. She was absorbed in a conversation with another lady, they were dissing some being in jail. Then when the entire conversation concluded. I stated I had a reservation. She asked for my id and credit card. Asked me how I wanted to pay. Ran my card and gave me my room key. Guess I had to figure room location on my own. This is so odd I stayed at a motel 6 in California and recieved the best service. But if this was my first exposure to motel 6 I would never stay again. I would say to any one booking here. Just beware they are run down equivalent to a pay by the hour motel. Just not a pleasant experience at all for me. I checked out early. Motel 6 will never see me or my business again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r383128193-Motel_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>383128193</t>
+  </si>
+  <si>
+    <t>06/16/2016</t>
+  </si>
+  <si>
+    <t>basic nothing fancy</t>
+  </si>
+  <si>
+    <t>the staff were really nice, and I like the location. very basic room. no microwave or mini fridge, but there is a microwave by the lobby area.the room was clean and smells fresh, and the pool was also clean.down side: windows does not open and WIFI is not free.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r337403684-Motel_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>337403684</t>
+  </si>
+  <si>
+    <t>01/04/2016</t>
+  </si>
+  <si>
+    <t>18 yrs olds not old enought to check in even though it says 18 is the required age!</t>
+  </si>
+  <si>
+    <t>I booked two rooms for me and 6 friends, all college freshmen, at this hotel 4 months in advance for Passion2016. We drove 5 hours to be told upon arrival that, "oh by the way the age is 21 at this motel." Say what? But the one right down the road will take 18 yrs olds. We found out why. No one would ever want to stay at Motel 6 Houston Energy Corridor. Just filthy, couldn't even shower due to filthy. An Amazing conference, Motel 6 not so amazing...</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r326587063-Motel_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>326587063</t>
+  </si>
+  <si>
+    <t>11/13/2015</t>
+  </si>
+  <si>
+    <t>Variety adds spice to life</t>
+  </si>
+  <si>
+    <t>I haven't stayed at a motel 6 in some time.  And this one was just fine.  Nothing fancy but has all the required stuff.  And it was VERY VERY close (by car) to some of the best food a person can encounter in this world.  I stayed at a Four Seasons miles and miles of traffic away, and on balance, I preferred this place for its proximity to food.  The sheets were a bit rough on my skin.  This hotel was quiet, with many people using it as long term residence while they worked in Houston.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r325868251-Motel_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>325868251</t>
+  </si>
+  <si>
+    <t>11/10/2015</t>
+  </si>
+  <si>
+    <t>What housekeeping?</t>
+  </si>
+  <si>
+    <t>Me and my fiance got a room here a while back. It was ok. You definetly get what you pay for. Whoever cleaned our room didn't do a good job. The sheets were dirty &amp; the roaches practically lived there. There was also only 1 towel in the room. Janet was nice enough to switch us to another room. She was very sweet. I can't say the same the same for the lady that checked us in earlier.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r300681055-Motel_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>300681055</t>
+  </si>
+  <si>
+    <t>08/18/2015</t>
+  </si>
+  <si>
+    <t>I wish I could put the smell into this review!</t>
+  </si>
+  <si>
+    <t>Terrible. Very disappointed! Waited 30 minutes to check in as they were busy and only had 1 person working. I stayed on the 1st floor, the hallway smelled like mold/mildew with 10 cans of fragrance sprayed on it to hide the odor. Once inside my room, the odor was worse. My in room AC unit dribbled out cool air even though I set it to high. I complained to the front desk but was told "It's an energy efficient unit, that's how it works". Well, my room never got below 80 degrees, so in my opinion, it didn't work.Very noisy property. Had a hard time sleeping. Not convenient to much (except a gas station and IHOP). Had a cockroach crawl across my head at 4AM. Couldn't sleep after that. Complained to the front desk, all they said was "We will let maintenance know". Yes the rooms are "updated" but the bathroom is as old as Houston itself! Paid for WIFI but it did not work! Was told there are no refunds, so that was a waste of $4Never staying here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Houston - Westchase, responded to this reviewResponded August 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2015</t>
+  </si>
+  <si>
+    <t>Terrible. Very disappointed! Waited 30 minutes to check in as they were busy and only had 1 person working. I stayed on the 1st floor, the hallway smelled like mold/mildew with 10 cans of fragrance sprayed on it to hide the odor. Once inside my room, the odor was worse. My in room AC unit dribbled out cool air even though I set it to high. I complained to the front desk but was told "It's an energy efficient unit, that's how it works". Well, my room never got below 80 degrees, so in my opinion, it didn't work.Very noisy property. Had a hard time sleeping. Not convenient to much (except a gas station and IHOP). Had a cockroach crawl across my head at 4AM. Couldn't sleep after that. Complained to the front desk, all they said was "We will let maintenance know". Yes the rooms are "updated" but the bathroom is as old as Houston itself! Paid for WIFI but it did not work! Was told there are no refunds, so that was a waste of $4Never staying here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r298500103-Motel_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>298500103</t>
+  </si>
+  <si>
+    <t>08/12/2015</t>
+  </si>
+  <si>
+    <t>Overnight stay for work</t>
+  </si>
+  <si>
+    <t>Pricing was u expecting low which was great! Room on first floor. Clean room. Friendly staff. Was wondering why police were in the lobby all night but I assume for safety reasons. No fridge or microwave which would have been nice. Will stay again if in the area.</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r244956023-Motel_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>244956023</t>
+  </si>
+  <si>
+    <t>12/18/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clean and somewhat courteous </t>
+  </si>
+  <si>
+    <t>The motel was close to where I needed to be and it was located near alot of places to eat. The room was clean that I was given just on the small side for my taste. I felt I was back in my college dorm with it being so small and the bed was small and the T.V propped up on top of the mini closet they had. I had no problem with parking and no problem with other guest say 1 suspicious guest but really didn't pay much mind to them. The staff was good they actually called my room and ask if everything was in order they also kept my room clean during my stay. The only complaint I have was that the back gate stayed locked it was hard trying to get to westhemier from the other unless you went completely around or us another properties lot to cut thru to get to itMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>The motel was close to where I needed to be and it was located near alot of places to eat. The room was clean that I was given just on the small side for my taste. I felt I was back in my college dorm with it being so small and the bed was small and the T.V propped up on top of the mini closet they had. I had no problem with parking and no problem with other guest say 1 suspicious guest but really didn't pay much mind to them. The staff was good they actually called my room and ask if everything was in order they also kept my room clean during my stay. The only complaint I have was that the back gate stayed locked it was hard trying to get to westhemier from the other unless you went completely around or us another properties lot to cut thru to get to itMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r200498570-Motel_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>200498570</t>
+  </si>
+  <si>
+    <t>04/09/2014</t>
+  </si>
+  <si>
+    <t>Not even one star</t>
+  </si>
+  <si>
+    <t>This motel is to be avoided!  There was black mold in the bathroom, the TV remote barely worked and the towel rack was falling off the wall.  Were that the worst....One of the beds had the mattress turned spring side up and when we looked underneath - well we should not have.  How the health department has not closed this place down is a mystery.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r166494537-Motel_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>166494537</t>
+  </si>
+  <si>
+    <t>07/06/2013</t>
+  </si>
+  <si>
+    <t>ROACHES</t>
+  </si>
+  <si>
+    <t>I had to kill a roach immediately upon entering the room, So right out of the gate I was disgusted.  No water pressure or hot water in sink, weird corner tub/shower with broken knob.  Tv barely worked, I was all around displeased. I will avoid motel 6 in the future.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r154127926-Motel_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154127926</t>
+  </si>
+  <si>
+    <t>03/09/2013</t>
+  </si>
+  <si>
+    <t>Never again, but clean, has a bed and shower</t>
+  </si>
+  <si>
+    <t>I stayed at the Humble location the previous night. It felt like a motel and had an unexpected mini fridge and microwave... Which was a nice touch, but didn't affect my stay. When I stayed at this location, I was so surprised to be staying in a tiny dorm room like place. It felt like I wasn't there by choice. But, I just needed a bed and a shower, so it worked. I didn't feel very safe when I arrived and I couldn't believe that outside my door were two young black men arguing until 2am and telling a woman that she was either going to have to be okay with him making a "deal" or he could find her "work" that night. I would never stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at the Humble location the previous night. It felt like a motel and had an unexpected mini fridge and microwave... Which was a nice touch, but didn't affect my stay. When I stayed at this location, I was so surprised to be staying in a tiny dorm room like place. It felt like I wasn't there by choice. But, I just needed a bed and a shower, so it worked. I didn't feel very safe when I arrived and I couldn't believe that outside my door were two young black men arguing until 2am and telling a woman that she was either going to have to be okay with him making a "deal" or he could find her "work" that night. I would never stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r132928458-Motel_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132928458</t>
+  </si>
+  <si>
+    <t>06/27/2012</t>
+  </si>
+  <si>
+    <t>If you have a nice car - STAY AWAY from this hotel!!!</t>
+  </si>
+  <si>
+    <t>Stayed at this Motel 6 without checking any reviews first. When I first got to the hotel things seemed very uneasy - it looked like the majority of people there were up to no good. Even though I had bad feelings about some of the people I saw staying at this hotel, I checked in anyways and never paid my uneasy feelings much attention. The first night was good, no problems. The second night, on the other hand, was terrible. During broad daylight my car was broken into. I checked out early because of this for the sole reason that the break-in verified my uneasy feelings I had for this hotel. I wanted to get the he$% out before anything else bad happened. This Motel 6 is in a bad area, it don't look like one, but it is. If you own a nice car then STAY AWAY from this location at all cost. If you stay at this Motel 6, your car WILL get broken into.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Stayed at this Motel 6 without checking any reviews first. When I first got to the hotel things seemed very uneasy - it looked like the majority of people there were up to no good. Even though I had bad feelings about some of the people I saw staying at this hotel, I checked in anyways and never paid my uneasy feelings much attention. The first night was good, no problems. The second night, on the other hand, was terrible. During broad daylight my car was broken into. I checked out early because of this for the sole reason that the break-in verified my uneasy feelings I had for this hotel. I wanted to get the he$% out before anything else bad happened. This Motel 6 is in a bad area, it don't look like one, but it is. If you own a nice car then STAY AWAY from this location at all cost. If you stay at this Motel 6, your car WILL get broken into.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r88857548-Motel_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>88857548</t>
+  </si>
+  <si>
+    <t>12/02/2010</t>
+  </si>
+  <si>
+    <t>You can check in, but you can't check out.</t>
+  </si>
+  <si>
+    <t>Norman Bates runs this place. His alter ego is Batman with the onsite police officer playing Robin to his Batman.I should have taken the advice of the taxi driver when he told me that everything from A to Z goes on here. This haven of nefarious activity is not worth staying in if they paid you. Anything and everything could happen to you here.This area of town is not safe and should be avoided at all costs.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r71271152-Motel_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>71271152</t>
+  </si>
+  <si>
+    <t>07/17/2010</t>
+  </si>
+  <si>
+    <t>checked out early!!!</t>
+  </si>
+  <si>
+    <t>motel 6-    2900 West Sam Houston Parkway South, Houston, TX 77042 i booked an room from 07/12 -07/15 but i had to leave by night 2 drug infested with reek of marijuana in air!!! now i cant get my money back $42.11 n you think?</t>
+  </si>
+  <si>
+    <t>July 2010</t>
   </si>
 </sst>
 </file>
@@ -532,11 +898,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +930,1187 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>34563</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>34563</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>34563</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>34563</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>34563</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>34563</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>34563</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O8" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>34563</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" t="s">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>99</v>
+      </c>
+      <c r="O9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>34563</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>86</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>34563</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>112</v>
+      </c>
+      <c r="X11" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>34563</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O12" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>34563</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>126</v>
+      </c>
+      <c r="O13" t="s">
+        <v>61</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>34563</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>128</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>129</v>
+      </c>
+      <c r="J14" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" t="s">
+        <v>131</v>
+      </c>
+      <c r="L14" t="s">
+        <v>132</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>133</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>34563</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" t="s">
+        <v>137</v>
+      </c>
+      <c r="L15" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>2</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>34563</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>34563</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" t="s">
+        <v>149</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>150</v>
+      </c>
+      <c r="O17" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>34563</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>152</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>153</v>
+      </c>
+      <c r="J18" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" t="s">
+        <v>155</v>
+      </c>
+      <c r="L18" t="s">
+        <v>156</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s"/>
+      <c r="O18" t="s"/>
+      <c r="P18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>34563</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J19" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" t="s">
+        <v>161</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>162</v>
+      </c>
+      <c r="O19" t="s">
+        <v>73</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_501.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_501.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="249">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,57 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/12/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r566239554-Motel_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>244313</t>
+  </si>
+  <si>
+    <t>566239554</t>
+  </si>
+  <si>
+    <t>03/13/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice place wonderful staff </t>
+  </si>
+  <si>
+    <t>I always come here when I’m in town it’s nice and the staff are wonderful very helpful mrs. Denice is the best I absolutely love her. There places to eat close by an theres gas stations close by. They also have a pool.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r540825421-Motel_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>540825421</t>
+  </si>
+  <si>
+    <t>11/13/2017</t>
+  </si>
+  <si>
+    <t>Despicable</t>
+  </si>
+  <si>
+    <t>Checked in and went to eat and check the area, was gone less than 2hrs. Came back and our things had been gone through and an expensive watch was missing. Apparently the cleaning lady came into our brand new room to steal, because it was disgusting she didn't clean anything! And why it wasn't cleaned beforehand is beyond me. We should have checked it better after checking in but after the long trip we were ready to eat. Management was no help, rude and unprofessional. They didn't want to give a refund until after police were involved and then they had the nerve to ban us from their Establishment, hustlers and swindlers! I generally enjoy motel 6, for the price it's hard to beat, generally. The franchise would be better off pulling their rights from this "operator". Save your money and your valuables, stay somewhere else!!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Checked in and went to eat and check the area, was gone less than 2hrs. Came back and our things had been gone through and an expensive watch was missing. Apparently the cleaning lady came into our brand new room to steal, because it was disgusting she didn't clean anything! And why it wasn't cleaned beforehand is beyond me. We should have checked it better after checking in but after the long trip we were ready to eat. Management was no help, rude and unprofessional. They didn't want to give a refund until after police were involved and then they had the nerve to ban us from their Establishment, hustlers and swindlers! I generally enjoy motel 6, for the price it's hard to beat, generally. The franchise would be better off pulling their rights from this "operator". Save your money and your valuables, stay somewhere else!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r482496709-Motel_6_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>244313</t>
-  </si>
-  <si>
     <t>482496709</t>
   </si>
   <si>
@@ -219,6 +258,45 @@
     <t>Clean and comfortableThe good: The room was clean and smelled fresh, the location was great, the rate was reasonable and the staff were friendly.The bad: WIFI is not free, only one ice machine on the first floor</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r443283149-Motel_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>443283149</t>
+  </si>
+  <si>
+    <t>12/10/2016</t>
+  </si>
+  <si>
+    <t>No amenities</t>
+  </si>
+  <si>
+    <t>OK... Hotel renovation nicely done.... Safe secure place.... However the rooms contain no microwave.... You have to go downstairs to use the one microwave they have.... You have to pay for shampoo and Wi-Fi..... There is an extended stay motel 6 right down the street..... Along with some other hotels.... When first ask about Wi-Fi the lady act like she didn't hear me.... Some guy sitting in a chair behind the desk.... I guess he was security now that I think about it.... Well he said Wi-Fi was down.... Next morning I called front desk to ask for password.... Was told I had to pay for it...</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r390780010-Motel_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>390780010</t>
+  </si>
+  <si>
+    <t>07/09/2016</t>
+  </si>
+  <si>
+    <t>good for the value</t>
+  </si>
+  <si>
+    <t>Pros: I liked that it didn't have carpet, Friendly staff, clean, pool was also clean, AC is very cool.Cons: Security could be improved a bit, hallway smelled like smoke,  some cracks at the bottom of the pool very basic room amenities.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r390117935-Motel_6_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -276,7 +354,40 @@
     <t>May 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r362117069-Motel_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>362117069</t>
+  </si>
+  <si>
+    <t>04/06/2016</t>
+  </si>
+  <si>
+    <t>Interesting</t>
+  </si>
+  <si>
+    <t>It was an interesting experice. I liked the location. They were very friendly. The only issue was they did not have free WI-FI. The security on the doors needs to be improved and/or updated. The neighborhood was not the best but I dealt with it.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r338447871-Motel_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>338447871</t>
+  </si>
+  <si>
+    <t>01/08/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worst hotel experience </t>
+  </si>
+  <si>
+    <t>I travel for a living and usually stay here at the motel 6 when in Houston. It has decent rooms and rates. However I will never again stay here. I got absolutely no sleep while here! People slammed doors all night! When I complained I was told by security that they didn't see anything. I then moved to another floor in hopes of getting some sleep but ran into the same problem again. I can't believe how loud this place was. If it weren't for the slamming doors keeping you for sleeping it would be a hell of a deal. Never again! Plus it had roaches! Ak!</t>
+  </si>
+  <si>
+    <t>January 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r337403684-Motel_6_Houston_Westchase-Houston_Texas.html</t>
@@ -294,12 +405,6 @@
     <t>I booked two rooms for me and 6 friends, all college freshmen, at this hotel 4 months in advance for Passion2016. We drove 5 hours to be told upon arrival that, "oh by the way the age is 21 at this motel." Say what? But the one right down the road will take 18 yrs olds. We found out why. No one would ever want to stay at Motel 6 Houston Energy Corridor. Just filthy, couldn't even shower due to filthy. An Amazing conference, Motel 6 not so amazing...</t>
   </si>
   <si>
-    <t>January 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r326587063-Motel_6_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -336,6 +441,48 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r324004354-Motel_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>324004354</t>
+  </si>
+  <si>
+    <t>11/02/2015</t>
+  </si>
+  <si>
+    <t>WHAT... THE... HELL!!!</t>
+  </si>
+  <si>
+    <t>Where do I even start?  The service in this place is absolutely atrocious!  The gentleman who checked us in wasn't bad.  But every person we dealt with after that, was just awful.  Now I've served in the military for the past 5 years.  I've slept in mud, rain and freezing wind next to my rifle and this place was unacceptable to ME!  The front desk ran like a high school bake sale, with people either talking on their cell phones, texting, watching TV or just not there.  But that was only a pet peeve of mine, let's talk about the housekeeping. First of all, the room looked very clean upon first entry, that night however, we noticed that one bed had a sheet and no blanket underneath.  During our stay, we let housekeeping clean our room one time (out of a 4 night stay).  They cleaned the bathroom just fine, however, the beds were made with a sheet only!  No blanket, no comforter, just a sheet and 2 pillows!?  They left the comforter in the room, but it was crammed into a drawer rather than spread across the bed.  The next morning when the housekeeping staff rolled through, I asked for a couple of blankets.  The maid was willing to give me one.  I had to explain that there were 2 beds in my room and that there were 4 people in it, she reluctantly and with plenty of attitude...Where do I even start?  The service in this place is absolutely atrocious!  The gentleman who checked us in wasn't bad.  But every person we dealt with after that, was just awful.  Now I've served in the military for the past 5 years.  I've slept in mud, rain and freezing wind next to my rifle and this place was unacceptable to ME!  The front desk ran like a high school bake sale, with people either talking on their cell phones, texting, watching TV or just not there.  But that was only a pet peeve of mine, let's talk about the housekeeping. First of all, the room looked very clean upon first entry, that night however, we noticed that one bed had a sheet and no blanket underneath.  During our stay, we let housekeeping clean our room one time (out of a 4 night stay).  They cleaned the bathroom just fine, however, the beds were made with a sheet only!  No blanket, no comforter, just a sheet and 2 pillows!?  They left the comforter in the room, but it was crammed into a drawer rather than spread across the bed.  The next morning when the housekeeping staff rolled through, I asked for a couple of blankets.  The maid was willing to give me one.  I had to explain that there were 2 beds in my room and that there were 4 people in it, she reluctantly and with plenty of attitude gave me another.But my favorite aspect of this hellhole, was the colorful clientele who apparently use this motel to... "entertain."  In short, this place is overrun by hookers, hoodrats, hustlers, drug dealers, grifters, schmoozers, pot heads and just plain old riff raff.  I'm here with my wife and 2 kids, not the best environment.  My 60 year father in law even got propositioned by some floozie!  At around 2am, my wife and I awoke to the sound of someone violently pounding on the door next door.  Whomever this woman was trying get the attention of was NOT interested.  The pounding continued for as long as my patients would allow (about 2 minutes) before I went outside to "handle" it.The place goes well beyond ridiculous, spend the extra cash, go anywhere else!MoreShow less</t>
+  </si>
+  <si>
+    <t>Where do I even start?  The service in this place is absolutely atrocious!  The gentleman who checked us in wasn't bad.  But every person we dealt with after that, was just awful.  Now I've served in the military for the past 5 years.  I've slept in mud, rain and freezing wind next to my rifle and this place was unacceptable to ME!  The front desk ran like a high school bake sale, with people either talking on their cell phones, texting, watching TV or just not there.  But that was only a pet peeve of mine, let's talk about the housekeeping. First of all, the room looked very clean upon first entry, that night however, we noticed that one bed had a sheet and no blanket underneath.  During our stay, we let housekeeping clean our room one time (out of a 4 night stay).  They cleaned the bathroom just fine, however, the beds were made with a sheet only!  No blanket, no comforter, just a sheet and 2 pillows!?  They left the comforter in the room, but it was crammed into a drawer rather than spread across the bed.  The next morning when the housekeeping staff rolled through, I asked for a couple of blankets.  The maid was willing to give me one.  I had to explain that there were 2 beds in my room and that there were 4 people in it, she reluctantly and with plenty of attitude...Where do I even start?  The service in this place is absolutely atrocious!  The gentleman who checked us in wasn't bad.  But every person we dealt with after that, was just awful.  Now I've served in the military for the past 5 years.  I've slept in mud, rain and freezing wind next to my rifle and this place was unacceptable to ME!  The front desk ran like a high school bake sale, with people either talking on their cell phones, texting, watching TV or just not there.  But that was only a pet peeve of mine, let's talk about the housekeeping. First of all, the room looked very clean upon first entry, that night however, we noticed that one bed had a sheet and no blanket underneath.  During our stay, we let housekeeping clean our room one time (out of a 4 night stay).  They cleaned the bathroom just fine, however, the beds were made with a sheet only!  No blanket, no comforter, just a sheet and 2 pillows!?  They left the comforter in the room, but it was crammed into a drawer rather than spread across the bed.  The next morning when the housekeeping staff rolled through, I asked for a couple of blankets.  The maid was willing to give me one.  I had to explain that there were 2 beds in my room and that there were 4 people in it, she reluctantly and with plenty of attitude gave me another.But my favorite aspect of this hellhole, was the colorful clientele who apparently use this motel to... "entertain."  In short, this place is overrun by hookers, hoodrats, hustlers, drug dealers, grifters, schmoozers, pot heads and just plain old riff raff.  I'm here with my wife and 2 kids, not the best environment.  My 60 year father in law even got propositioned by some floozie!  At around 2am, my wife and I awoke to the sound of someone violently pounding on the door next door.  Whomever this woman was trying get the attention of was NOT interested.  The pounding continued for as long as my patients would allow (about 2 minutes) before I went outside to "handle" it.The place goes well beyond ridiculous, spend the extra cash, go anywhere else!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r318718112-Motel_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>318718112</t>
+  </si>
+  <si>
+    <t>10/14/2015</t>
+  </si>
+  <si>
+    <t>Only if there's no other place in Houston!</t>
+  </si>
+  <si>
+    <t>I was forced into this motel because of a large convention in town. Bare minimum. Bed was not comfortable. I asked for an iron and was told it was already checked out and they would notify me when returned. Never heard from them. I called in the morning and requested a blow dryer. The ONE blow dryer was checked out but they didn't know by who our when it would be back. I went to Walgreens and bought one. Elevator was dirty. Hotel front desk person, Jeanette, was extremely unhelpful and rude.MoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Houston - Westchase, responded to this reviewResponded October 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 15, 2015</t>
+  </si>
+  <si>
+    <t>I was forced into this motel because of a large convention in town. Bare minimum. Bed was not comfortable. I asked for an iron and was told it was already checked out and they would notify me when returned. Never heard from them. I called in the morning and requested a blow dryer. The ONE blow dryer was checked out but they didn't know by who our when it would be back. I went to Walgreens and bought one. Elevator was dirty. Hotel front desk person, Jeanette, was extremely unhelpful and rude.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r300681055-Motel_6_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -402,6 +549,48 @@
     <t>The motel was close to where I needed to be and it was located near alot of places to eat. The room was clean that I was given just on the small side for my taste. I felt I was back in my college dorm with it being so small and the bed was small and the T.V propped up on top of the mini closet they had. I had no problem with parking and no problem with other guest say 1 suspicious guest but really didn't pay much mind to them. The staff was good they actually called my room and ask if everything was in order they also kept my room clean during my stay. The only complaint I have was that the back gate stayed locked it was hard trying to get to westhemier from the other unless you went completely around or us another properties lot to cut thru to get to itMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r223538969-Motel_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>223538969</t>
+  </si>
+  <si>
+    <t>08/21/2014</t>
+  </si>
+  <si>
+    <t>Decent, Basic, Affordable place to stay</t>
+  </si>
+  <si>
+    <t>My overall experience on 8/19/14 was good. My room was quiet and was clean enough to me. Wifi was $2.99/24hrs. There was no mold, smells etc. like some other Motel 6's in Houston. Room was almost identical to the pics posted by another user here. You can't expect the Hilton for $69 per night. If you need an affordable place to stay in this area I would recommend the motel 6.The only thing I found annoying was the back entrance/ exit was gated off by the manager due to "racing". There is no access from Rogerdale Rd. You have to pass it and circle around on the beltway access road. Similarly, when you are trying to leave you can't access Rogerdale directly.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>My overall experience on 8/19/14 was good. My room was quiet and was clean enough to me. Wifi was $2.99/24hrs. There was no mold, smells etc. like some other Motel 6's in Houston. Room was almost identical to the pics posted by another user here. You can't expect the Hilton for $69 per night. If you need an affordable place to stay in this area I would recommend the motel 6.The only thing I found annoying was the back entrance/ exit was gated off by the manager due to "racing". There is no access from Rogerdale Rd. You have to pass it and circle around on the beltway access road. Similarly, when you are trying to leave you can't access Rogerdale directly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r216273758-Motel_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>216273758</t>
+  </si>
+  <si>
+    <t>07/19/2014</t>
+  </si>
+  <si>
+    <t>Noisy, smelly, scant amenities</t>
+  </si>
+  <si>
+    <t>We reserved two rooms for three nights each. First of all, you could add a few amenities. Hair dryers, Do Not Disturb signs, and WiFi are pretty standard, along with shampoo and coffee. Additionally, continental breakfast is common. Your price is only competitive, if you ignore the fact that you provide essentially no amenities.  The room was clean. However, my parents were put in a handicapped room, which meant no bathtub and only a handheld shower nozzle. They were not informed of this, but merely discovered it. The bathroom exhaust fans did not work in either bathroom.  They also give you ONE washcloth for TWO guests. The hallways were very noisy. We were at the end of the hallway and had to tolerate the door slamming all day and night. The biggest objection was that the elevator was filthy and the hallways reeked of cigarette smoke, and were littered with cigarette butts. However, we were comforted by the secure feeling of a sheriff officer escort when we returned one evening. Fortunately, he was visiting the other end of the hallway.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>We reserved two rooms for three nights each. First of all, you could add a few amenities. Hair dryers, Do Not Disturb signs, and WiFi are pretty standard, along with shampoo and coffee. Additionally, continental breakfast is common. Your price is only competitive, if you ignore the fact that you provide essentially no amenities.  The room was clean. However, my parents were put in a handicapped room, which meant no bathtub and only a handheld shower nozzle. They were not informed of this, but merely discovered it. The bathroom exhaust fans did not work in either bathroom.  They also give you ONE washcloth for TWO guests. The hallways were very noisy. We were at the end of the hallway and had to tolerate the door slamming all day and night. The biggest objection was that the elevator was filthy and the hallways reeked of cigarette smoke, and were littered with cigarette butts. However, we were comforted by the secure feeling of a sheriff officer escort when we returned one evening. Fortunately, he was visiting the other end of the hallway.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r200498570-Motel_6_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -453,6 +642,39 @@
     <t>I stayed at the Humble location the previous night. It felt like a motel and had an unexpected mini fridge and microwave... Which was a nice touch, but didn't affect my stay. When I stayed at this location, I was so surprised to be staying in a tiny dorm room like place. It felt like I wasn't there by choice. But, I just needed a bed and a shower, so it worked. I didn't feel very safe when I arrived and I couldn't believe that outside my door were two young black men arguing until 2am and telling a woman that she was either going to have to be okay with him making a "deal" or he could find her "work" that night. I would never stay there again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r152577606-Motel_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152577606</t>
+  </si>
+  <si>
+    <t>02/19/2013</t>
+  </si>
+  <si>
+    <t>Very Uncomfortable</t>
+  </si>
+  <si>
+    <t>My friend and I reserved a room here for three days.....we left after one day. The beds were as hard as rocks. It felt as if we were sleeping on boxsprings. The sheets and towels were also cheap and thin. I wasn't expecting much from a Motel 6 but I've stayed in better ones than this. On the bright side, we were issued a refund for the 2 remaining nights without an issue and the rooms didn't smell musty like most Motel 6s do.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r147981194-Motel_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>147981194</t>
+  </si>
+  <si>
+    <t>12/23/2012</t>
+  </si>
+  <si>
+    <t>(Roach) Motel 6- Roach infestation, left immediately</t>
+  </si>
+  <si>
+    <t>If you truly don't care where you sleep and don't mind having huge critters as your BFF, then this is the place for you!! I wish I could say we only saw one cockroach, but then that would be a lie; we only saw five!!  It was horrible-- when we complained to the attendant about why we were leaving at 3 in the morning, she told us that she couldn't accomodate us and had an attitude with it!  I will never forget this place, simply because I will never return.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r132928458-Motel_6_Houston_Westchase-Houston_Texas.html</t>
   </si>
   <si>
@@ -505,6 +727,48 @@
   </si>
   <si>
     <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r43655474-Motel_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>43655474</t>
+  </si>
+  <si>
+    <t>09/22/2009</t>
+  </si>
+  <si>
+    <t>excellent  would stay again top class no complaints.</t>
+  </si>
+  <si>
+    <t>motel was great staff were great and very helpful rooms were clean and tidy plenty of hot water and air con was great also tv was handy and plenty of channels to watch well worth staying here will go back again nice clean pool.theres a bus every 20mins that goes downtown no.82 only costs a dollar and runs till late yellow cabs are very expensive .</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d244313-r3397656-Motel_6_Houston_Westchase-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>3397656</t>
+  </si>
+  <si>
+    <t>04/21/2005</t>
+  </si>
+  <si>
+    <t>Great little cheapie place, but single ladies may get phone calls...</t>
+  </si>
+  <si>
+    <t>I have stayed here three times now, and I like this place a lot in general. The rooms are very spartan, but clean and friendly and the beds are comfortable enough for restful sleep. The location is also very good for access to west and SW houston, and the staff seems very professional and helpful for a rock-bottom budget inn.
+My only complaints are:
+1) the shower water smelled a little funky on one visit, and made my hair look weird. Don't know if that was due to hard water or the lack of good water pressure, but wasn't fun. 
+2) I have stayed there alone usually, and two out of the three times I've been there I have gotten strange calls at around 6am. One was from some guy who was trying to flirt with me and another time someone kept ringing me and hanging up, to the point that I had to have the desk turn off the phone. Now there is never anyone who knows I am staying at the Motel 6 when I am in Houston, so I have been thinking that there may be people on the staff or otherwise who keep an eye out for single female guests and feel the need to bother them. Why they would think I would want to party with them at 6am on a weekday I have no idea, this is just an FYI in terms of feeling...I have stayed here three times now, and I like this place a lot in general. The rooms are very spartan, but clean and friendly and the beds are comfortable enough for restful sleep. The location is also very good for access to west and SW houston, and the staff seems very professional and helpful for a rock-bottom budget inn.My only complaints are:1) the shower water smelled a little funky on one visit, and made my hair look weird. Don't know if that was due to hard water or the lack of good water pressure, but wasn't fun. 2) I have stayed there alone usually, and two out of the three times I've been there I have gotten strange calls at around 6am. One was from some guy who was trying to flirt with me and another time someone kept ringing me and hanging up, to the point that I had to have the desk turn off the phone. Now there is never anyone who knows I am staying at the Motel 6 when I am in Houston, so I have been thinking that there may be people on the staff or otherwise who keep an eye out for single female guests and feel the need to bother them. Why they would think I would want to party with them at 6am on a weekday I have no idea, this is just an FYI in terms of feeling safe. Nothing else has ever happened there to freak me out, but the second time I got the early am calls I have to say it made me wonder if that sort of thing happens there often. Otherwise I recommend this hotel for the super cheap traveller who still wants to have clean and comfortable accommodations.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have stayed here three times now, and I like this place a lot in general. The rooms are very spartan, but clean and friendly and the beds are comfortable enough for restful sleep. The location is also very good for access to west and SW houston, and the staff seems very professional and helpful for a rock-bottom budget inn.
+My only complaints are:
+1) the shower water smelled a little funky on one visit, and made my hair look weird. Don't know if that was due to hard water or the lack of good water pressure, but wasn't fun. 
+2) I have stayed there alone usually, and two out of the three times I've been there I have gotten strange calls at around 6am. One was from some guy who was trying to flirt with me and another time someone kept ringing me and hanging up, to the point that I had to have the desk turn off the phone. Now there is never anyone who knows I am staying at the Motel 6 when I am in Houston, so I have been thinking that there may be people on the staff or otherwise who keep an eye out for single female guests and feel the need to bother them. Why they would think I would want to party with them at 6am on a weekday I have no idea, this is just an FYI in terms of feeling...I have stayed here three times now, and I like this place a lot in general. The rooms are very spartan, but clean and friendly and the beds are comfortable enough for restful sleep. The location is also very good for access to west and SW houston, and the staff seems very professional and helpful for a rock-bottom budget inn.My only complaints are:1) the shower water smelled a little funky on one visit, and made my hair look weird. Don't know if that was due to hard water or the lack of good water pressure, but wasn't fun. 2) I have stayed there alone usually, and two out of the three times I've been there I have gotten strange calls at around 6am. One was from some guy who was trying to flirt with me and another time someone kept ringing me and hanging up, to the point that I had to have the desk turn off the phone. Now there is never anyone who knows I am staying at the Motel 6 when I am in Houston, so I have been thinking that there may be people on the staff or otherwise who keep an eye out for single female guests and feel the need to bother them. Why they would think I would want to party with them at 6am on a weekday I have no idea, this is just an FYI in terms of feeling safe. Nothing else has ever happened there to freak me out, but the second time I got the early am calls I have to say it made me wonder if that sort of thing happens there often. Otherwise I recommend this hotel for the super cheap traveller who still wants to have clean and comfortable accommodations.More</t>
   </si>
 </sst>
 </file>
@@ -1039,14 +1303,10 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
-      </c>
-      <c r="N2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
@@ -1059,7 +1319,7 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1075,7 +1335,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1084,25 +1344,25 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>58</v>
-      </c>
-      <c r="L3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1132,7 +1392,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1141,45 +1401,39 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
         <v>63</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>66</v>
       </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>60</v>
-      </c>
-      <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>4</v>
-      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1195,7 +1449,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1204,45 +1458,39 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -1258,7 +1506,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -1267,32 +1515,38 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O6" t="s">
-        <v>73</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
@@ -1336,7 +1590,7 @@
         <v>84</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
         <v>85</v>
@@ -1344,15 +1598,17 @@
       <c r="O7" t="s">
         <v>86</v>
       </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="n">
+      <c r="P7" t="n">
         <v>4</v>
       </c>
-      <c r="R7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1397,20 +1653,26 @@
         <v>91</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
         <v>92</v>
       </c>
       <c r="O8" t="s">
-        <v>93</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
+        <v>86</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
@@ -1433,7 +1695,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1442,34 +1704,34 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" t="s">
         <v>95</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>96</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>97</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>98</v>
       </c>
-      <c r="M9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>99</v>
       </c>
-      <c r="O9" t="s">
-        <v>61</v>
-      </c>
-      <c r="P9" t="n">
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
         <v>5</v>
       </c>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="n">
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
         <v>5</v>
       </c>
-      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
         <v>5</v>
@@ -1480,7 +1742,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
@@ -1517,13 +1779,13 @@
         <v>104</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="O10" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1537,7 +1799,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -1574,35 +1836,31 @@
         <v>110</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
         <v>111</v>
       </c>
       <c r="O11" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>112</v>
-      </c>
-      <c r="X11" t="s">
-        <v>113</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
@@ -1618,7 +1876,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1627,35 +1885,37 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
         <v>116</v>
       </c>
-      <c r="J12" t="s">
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
         <v>117</v>
       </c>
-      <c r="K12" t="s">
-        <v>118</v>
-      </c>
-      <c r="L12" t="s">
-        <v>119</v>
-      </c>
-      <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="s">
-        <v>120</v>
-      </c>
       <c r="O12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1663,7 +1923,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -1679,7 +1939,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1688,25 +1948,25 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s">
         <v>122</v>
       </c>
-      <c r="J13" t="s">
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
         <v>123</v>
       </c>
-      <c r="K13" t="s">
-        <v>124</v>
-      </c>
-      <c r="L13" t="s">
-        <v>125</v>
-      </c>
-      <c r="M13" t="n">
-        <v>3</v>
-      </c>
-      <c r="N13" t="s">
-        <v>126</v>
-      </c>
       <c r="O13" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1720,7 +1980,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
@@ -1736,7 +1996,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1745,49 +2005,39 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="J14" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K14" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" t="n">
-        <v>3</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>1</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
@@ -1803,7 +2053,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -1812,37 +2062,37 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="J15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>134</v>
+      </c>
+      <c r="O15" t="s">
+        <v>74</v>
+      </c>
       <c r="P15" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="n">
-        <v>3</v>
-      </c>
-      <c r="S15" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1850,7 +2100,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16">
@@ -1866,7 +2116,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -1875,45 +2125,39 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" t="s">
+        <v>138</v>
+      </c>
+      <c r="L16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
         <v>140</v>
       </c>
-      <c r="J16" t="s">
-        <v>141</v>
-      </c>
-      <c r="K16" t="s">
-        <v>142</v>
-      </c>
-      <c r="L16" t="s">
-        <v>143</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
-      <c r="P16" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3</v>
-      </c>
+      <c r="O16" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>2</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17">
@@ -1929,7 +2173,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -1938,41 +2182,37 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J17" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K17" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L17" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="O17" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="P17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q17" t="s"/>
       <c r="R17" t="n">
-        <v>1</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1980,7 +2220,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18">
@@ -1996,7 +2236,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2005,45 +2245,43 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="J18" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="K18" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L18" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
-      <c r="P18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>140</v>
+      </c>
+      <c r="O18" t="s">
+        <v>99</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>1</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>152</v>
+      </c>
+      <c r="X18" t="s">
+        <v>153</v>
+      </c>
       <c r="Y18" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19">
@@ -2059,7 +2297,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2068,35 +2306,29 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
+        <v>156</v>
+      </c>
+      <c r="J19" t="s">
+        <v>157</v>
+      </c>
+      <c r="K19" t="s">
         <v>158</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>159</v>
       </c>
-      <c r="K19" t="s">
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
         <v>160</v>
       </c>
-      <c r="L19" t="s">
-        <v>161</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="s">
-        <v>162</v>
-      </c>
       <c r="O19" t="s">
-        <v>73</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
       <c r="S19" t="n">
         <v>1</v>
       </c>
@@ -2107,10 +2339,904 @@
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>161</v>
+      </c>
+      <c r="X19" t="s">
+        <v>162</v>
+      </c>
       <c r="Y19" t="s">
-        <v>161</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>34563</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>165</v>
+      </c>
+      <c r="J20" t="s">
+        <v>166</v>
+      </c>
+      <c r="K20" t="s">
+        <v>167</v>
+      </c>
+      <c r="L20" t="s">
+        <v>168</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>169</v>
+      </c>
+      <c r="O20" t="s">
+        <v>99</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>34563</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>171</v>
+      </c>
+      <c r="J21" t="s">
+        <v>172</v>
+      </c>
+      <c r="K21" t="s">
+        <v>173</v>
+      </c>
+      <c r="L21" t="s">
+        <v>174</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>175</v>
+      </c>
+      <c r="O21" t="s">
+        <v>74</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>34563</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>178</v>
+      </c>
+      <c r="J22" t="s">
+        <v>179</v>
+      </c>
+      <c r="K22" t="s">
+        <v>180</v>
+      </c>
+      <c r="L22" t="s">
+        <v>181</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>182</v>
+      </c>
+      <c r="O22" t="s">
+        <v>99</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>34563</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>185</v>
+      </c>
+      <c r="J23" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L23" t="s">
+        <v>188</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>189</v>
+      </c>
+      <c r="O23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>34563</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>192</v>
+      </c>
+      <c r="J24" t="s">
+        <v>193</v>
+      </c>
+      <c r="K24" t="s">
+        <v>194</v>
+      </c>
+      <c r="L24" t="s">
+        <v>195</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>196</v>
+      </c>
+      <c r="O24" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>34563</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>197</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>198</v>
+      </c>
+      <c r="J25" t="s">
+        <v>199</v>
+      </c>
+      <c r="K25" t="s">
+        <v>200</v>
+      </c>
+      <c r="L25" t="s">
+        <v>201</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>34563</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>202</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>203</v>
+      </c>
+      <c r="J26" t="s">
+        <v>204</v>
+      </c>
+      <c r="K26" t="s">
+        <v>205</v>
+      </c>
+      <c r="L26" t="s">
+        <v>206</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s"/>
+      <c r="O26" t="s"/>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>34563</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>209</v>
+      </c>
+      <c r="J27" t="s">
+        <v>210</v>
+      </c>
+      <c r="K27" t="s">
+        <v>211</v>
+      </c>
+      <c r="L27" t="s">
+        <v>212</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" t="n">
+        <v>2</v>
+      </c>
+      <c r="S27" t="n">
+        <v>2</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>34563</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>213</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>214</v>
+      </c>
+      <c r="J28" t="s">
+        <v>215</v>
+      </c>
+      <c r="K28" t="s">
+        <v>216</v>
+      </c>
+      <c r="L28" t="s">
+        <v>217</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>218</v>
+      </c>
+      <c r="O28" t="s">
+        <v>86</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>34563</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>219</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>220</v>
+      </c>
+      <c r="J29" t="s">
+        <v>221</v>
+      </c>
+      <c r="K29" t="s">
+        <v>222</v>
+      </c>
+      <c r="L29" t="s">
+        <v>223</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>224</v>
+      </c>
+      <c r="O29" t="s">
+        <v>74</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>34563</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>226</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>227</v>
+      </c>
+      <c r="J30" t="s">
+        <v>228</v>
+      </c>
+      <c r="K30" t="s">
+        <v>229</v>
+      </c>
+      <c r="L30" t="s">
+        <v>230</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>34563</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>231</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>232</v>
+      </c>
+      <c r="J31" t="s">
+        <v>233</v>
+      </c>
+      <c r="K31" t="s">
+        <v>234</v>
+      </c>
+      <c r="L31" t="s">
+        <v>235</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>236</v>
+      </c>
+      <c r="O31" t="s">
+        <v>99</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>34563</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>237</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>238</v>
+      </c>
+      <c r="J32" t="s">
+        <v>239</v>
+      </c>
+      <c r="K32" t="s">
+        <v>240</v>
+      </c>
+      <c r="L32" t="s">
+        <v>241</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>242</v>
+      </c>
+      <c r="O32" t="s">
+        <v>86</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>34563</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>243</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>244</v>
+      </c>
+      <c r="J33" t="s">
+        <v>245</v>
+      </c>
+      <c r="K33" t="s">
+        <v>246</v>
+      </c>
+      <c r="L33" t="s">
+        <v>247</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
